--- a/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.16 - 6.17 Unit Linked 1pc entry fee.xlsx
+++ b/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.16 - 6.17 Unit Linked 1pc entry fee.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Desktop\LIRV\Textbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,26 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Assume the profit is released at the start of the year.</t>
+Assume </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>all</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> the profits are released at the start of the year.</t>
         </r>
       </text>
     </comment>
@@ -667,9 +686,9 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1233,13 +1252,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1259,16 +1278,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1290,72 +1309,99 @@
     <xf numFmtId="1" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1363,6 +1409,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,16 +1438,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1404,10 +1456,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,39 +1467,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3110,7 +3129,7 @@
       <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3159,7 +3178,7 @@
     </row>
     <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="60" t="s">
         <v>115</v>
       </c>
       <c r="J6"/>
@@ -3170,7 +3189,7 @@
         <v>117</v>
       </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="87">
+      <c r="R6" s="65">
         <f>N9/'Policyholder cash flows'!H6</f>
         <v>0.35829637242248791</v>
       </c>
@@ -3178,63 +3197,63 @@
         <v>118</v>
       </c>
       <c r="AF6" s="3"/>
-      <c r="AG6" s="87">
+      <c r="AG6" s="65">
         <f>AF9/'Policyholder cash flows'!H6</f>
         <v>0.25439561256186638</v>
       </c>
-      <c r="AH6" s="89" t="s">
+      <c r="AH6" s="67" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="P7" s="68" t="s">
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="P7" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="Y7" s="68" t="s">
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="Y7" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AE7" s="90" t="s">
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AE7" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
     </row>
     <row r="8" spans="1:38" ht="54" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="I8" s="82"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="22" t="s">
         <v>33</v>
       </c>
@@ -3337,7 +3356,7 @@
       <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="61">
         <f>NPV(Discount_rate,'Shareholder cash flows'!$D10:$D$20)*(1+Discount_rate)-D10
 +NPV(Discount_rate,'Shareholder cash flows'!$E10:$E$20)*(1+Discount_rate)-E10
 +NPV(Discount_rate,'Shareholder cash flows'!$F10:$F$20)
@@ -3349,11 +3368,11 @@
         <f>J9</f>
         <v>9318.3156039411988</v>
       </c>
-      <c r="M9" s="83">
+      <c r="M9" s="61">
         <f>C10-D10-E10+K9-L9</f>
         <v>281.68439605880121</v>
       </c>
-      <c r="N9" s="84">
+      <c r="N9" s="62">
         <f>NPV(Discount_rate,'Shareholder cash flows'!$M10:$M$20)+M9</f>
         <v>281.68439605879911</v>
       </c>
@@ -3374,14 +3393,14 @@
         <f>R9</f>
         <v>9599.9999999999982</v>
       </c>
-      <c r="U9" s="83">
+      <c r="U9" s="61">
         <f>C10-D10-E10+S9-T9</f>
         <v>0</v>
       </c>
       <c r="V9" s="24">
         <v>0</v>
       </c>
-      <c r="W9" s="84">
+      <c r="W9" s="62">
         <f>NPV(Discount_rate,'Shareholder cash flows'!$U10:$U$20)+U9</f>
         <v>281.68439605879502</v>
       </c>
@@ -3394,11 +3413,11 @@
         <f>Y9</f>
         <v>9900</v>
       </c>
-      <c r="AB9" s="85">
+      <c r="AB9" s="63">
         <f>C10-D10-E10+Z9-AA9</f>
         <v>-300</v>
       </c>
-      <c r="AC9" s="84">
+      <c r="AC9" s="62">
         <f>NPV(Discount_rate,AB10:AB20)+AB9</f>
         <v>281.68439605879678</v>
       </c>
@@ -3406,7 +3425,7 @@
         <f>Y9</f>
         <v>9900</v>
       </c>
-      <c r="AF9" s="86">
+      <c r="AF9" s="64">
         <f>Single_premium*(Initial_comm_rate-Entry_fee)</f>
         <v>199.99999999999997</v>
       </c>
@@ -3418,16 +3437,16 @@
         <f>AE9-AF9</f>
         <v>9700</v>
       </c>
-      <c r="AI9" s="84"/>
+      <c r="AI9" s="62"/>
       <c r="AJ9" s="24">
         <f>AH9</f>
         <v>9700</v>
       </c>
-      <c r="AK9" s="85">
+      <c r="AK9" s="63">
         <f>C10-D10-E10+AI9-AJ9</f>
         <v>-100</v>
       </c>
-      <c r="AL9" s="84">
+      <c r="AL9" s="62">
         <f>NPV(Discount_rate,AK10:AK20)+AK9</f>
         <v>281.68439605879701</v>
       </c>
@@ -3467,7 +3486,7 @@
 -NPV(Discount_rate,'Shareholder cash flows'!$C11:$C$20)*(1+Discount_rate)</f>
         <v>7808.3145401776728</v>
       </c>
-      <c r="K10" s="83">
+      <c r="K10" s="61">
         <f>J9*Investment_rate</f>
         <v>559.0989362364719</v>
       </c>
@@ -3475,11 +3494,11 @@
         <f>J10-J9</f>
         <v>-1510.001063763526</v>
       </c>
-      <c r="M10" s="83">
+      <c r="M10" s="61">
         <f>-F10+K10-L10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="88">
+      <c r="N10" s="66">
         <f>M9*(1+Investment_rate)+M10</f>
         <v>298.58545982232931</v>
       </c>
@@ -3496,7 +3515,7 @@
         <f t="shared" si="0"/>
         <v>8053.6929886952603</v>
       </c>
-      <c r="S10" s="85">
+      <c r="S10" s="63">
         <f>(R9)*Investment_rate</f>
         <v>575.99999999999989</v>
       </c>
@@ -3504,7 +3523,7 @@
         <f>R10-R9</f>
         <v>-1546.3070113047379</v>
       </c>
-      <c r="U10" s="83">
+      <c r="U10" s="61">
         <f>-F10+S10-T10</f>
         <v>53.207011304738444</v>
       </c>
@@ -3516,7 +3535,7 @@
         <f>'Policyholder cash flows'!D7</f>
         <v>8276.4000000000015</v>
       </c>
-      <c r="Z10" s="83">
+      <c r="Z10" s="61">
         <f>Y9*Investment_rate</f>
         <v>594</v>
       </c>
@@ -3524,11 +3543,11 @@
         <f t="shared" ref="AA10:AA19" si="2">Y10-Y9</f>
         <v>-1623.5999999999985</v>
       </c>
-      <c r="AB10" s="85">
+      <c r="AB10" s="63">
         <f>-F10+Z10-AA10</f>
         <v>148.49999999999909</v>
       </c>
-      <c r="AC10" s="88">
+      <c r="AC10" s="66">
         <f>AB9*(1+Investment_rate)+AB10</f>
         <v>-169.50000000000091</v>
       </c>
@@ -3536,8 +3555,8 @@
         <f t="shared" ref="AE10:AE18" si="3">Y10</f>
         <v>8276.4000000000015</v>
       </c>
-      <c r="AF10" s="92">
-        <f>AF9*(1+Investment_rate)-AG9</f>
+      <c r="AF10" s="68">
+        <f t="shared" ref="AF10:AF19" si="4">AF9*(1+Investment_rate)-AG9</f>
         <v>174.22225153456282</v>
       </c>
       <c r="AG10" s="24">
@@ -3545,22 +3564,22 @@
         <v>31.582197717105469</v>
       </c>
       <c r="AH10" s="24">
-        <f t="shared" ref="AH10:AH19" si="4">AE10-AF10</f>
+        <f t="shared" ref="AH10:AH19" si="5">AE10-AF10</f>
         <v>8102.1777484654385</v>
       </c>
-      <c r="AI10" s="83">
+      <c r="AI10" s="61">
         <f>(AH9)*Investment_rate</f>
         <v>582</v>
       </c>
       <c r="AJ10" s="24">
-        <f t="shared" ref="AJ10:AJ19" si="5">AH10-AH9</f>
+        <f t="shared" ref="AJ10:AJ19" si="6">AH10-AH9</f>
         <v>-1597.8222515345615</v>
       </c>
-      <c r="AK10" s="85">
+      <c r="AK10" s="63">
         <f>-F10+AI10-AJ10</f>
         <v>110.72225153456202</v>
       </c>
-      <c r="AL10" s="88">
+      <c r="AL10" s="66">
         <f>AK9*(1+Investment_rate)+AK10</f>
         <v>4.7222515345620195</v>
       </c>
@@ -3585,12 +3604,12 @@
         <v>864.88380000000097</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" ref="G11:G19" si="6">C11-D11-E11-F11</f>
+        <f t="shared" ref="G11:G19" si="7">C11-D11-E11-F11</f>
         <v>-904.88380000000097</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="5">
-        <f t="shared" ref="I11:I19" si="7">1+I10</f>
+        <f t="shared" ref="I11:I19" si="8">1+I10</f>
         <v>2</v>
       </c>
       <c r="J11" s="8">
@@ -3601,11 +3620,11 @@
         <v>7369.5296125883324</v>
       </c>
       <c r="K11" s="8">
-        <f>(J10+C11-D11-E11)*Investment_rate</f>
+        <f t="shared" ref="K11:K19" si="9">(J10+C11-D11-E11)*Investment_rate</f>
         <v>466.09887241066036</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" ref="L11:L19" si="8">J11-J10</f>
+        <f t="shared" ref="L11:L19" si="10">J11-J10</f>
         <v>-438.78492758934044</v>
       </c>
       <c r="M11" s="8">
@@ -3625,15 +3644,15 @@
         <v>7585.1497065662134</v>
       </c>
       <c r="S11" s="24">
-        <f t="shared" ref="S11:S19" si="9">(R10-E11-D11)*Investment_rate</f>
+        <f t="shared" ref="S11:S19" si="11">(R10-E11-D11)*Investment_rate</f>
         <v>480.8215793217156</v>
       </c>
       <c r="T11" s="24">
-        <f t="shared" ref="T11:T19" si="10">R11-R10</f>
+        <f t="shared" ref="T11:T19" si="12">R11-R10</f>
         <v>-468.54328212904693</v>
       </c>
       <c r="U11" s="24">
-        <f t="shared" ref="U11:U19" si="11">G11+S11-T11</f>
+        <f t="shared" ref="U11:U19" si="13">G11+S11-T11</f>
         <v>44.481061450761558</v>
       </c>
       <c r="V11" s="24">
@@ -3645,7 +3664,7 @@
         <v>7783.9542000000001</v>
       </c>
       <c r="Z11" s="23">
-        <f t="shared" ref="Z11:Z19" si="12">(Y10-D11-E11)*Investment_rate</f>
+        <f t="shared" ref="Z11:Z19" si="14">(Y10-D11-E11)*Investment_rate</f>
         <v>494.18400000000008</v>
       </c>
       <c r="AA11" s="24">
@@ -3653,7 +3672,7 @@
         <v>-492.44580000000133</v>
       </c>
       <c r="AB11" s="24">
-        <f t="shared" ref="AB11:AB19" si="13">G11+Z11-AA11</f>
+        <f t="shared" ref="AB11:AB19" si="15">G11+Z11-AA11</f>
         <v>81.746000000000436</v>
       </c>
       <c r="AC11"/>
@@ -3661,8 +3680,8 @@
         <f t="shared" si="3"/>
         <v>7783.9542000000001</v>
       </c>
-      <c r="AF11" s="92">
-        <f>AF10*(1+Investment_rate)-AG10</f>
+      <c r="AF11" s="68">
+        <f t="shared" si="4"/>
         <v>153.09338890953114</v>
       </c>
       <c r="AG11" s="24">
@@ -3670,15 +3689,15 @@
         <v>29.703056952937686</v>
       </c>
       <c r="AH11" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7630.8608110904688</v>
       </c>
       <c r="AI11" s="24">
-        <f>(AH10+C11-D11-E11)*Investment_rate</f>
+        <f t="shared" ref="AI11:AI19" si="16">(AH10+C11-D11-E11)*Investment_rate</f>
         <v>483.73066490792627</v>
       </c>
       <c r="AJ11" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-471.31693737496971</v>
       </c>
       <c r="AK11" s="24">
@@ -3688,7 +3707,7 @@
     </row>
     <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
-        <f t="shared" ref="B12:B19" si="14">1+B11</f>
+        <f t="shared" ref="B12:B19" si="17">1+B11</f>
         <v>3</v>
       </c>
       <c r="C12" s="8">
@@ -3706,12 +3725,12 @@
         <v>813.42321389999984</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-850.14321389999986</v>
       </c>
       <c r="H12"/>
       <c r="I12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="J12" s="8">
@@ -3722,15 +3741,15 @@
         <v>6959.3549754436335</v>
       </c>
       <c r="K12" s="8">
-        <f>(J11+C12-D12-E12)*Investment_rate</f>
+        <f t="shared" si="9"/>
         <v>439.96857675529992</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-410.17463714469886</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" ref="M12:M19" si="15">G12+K12-L12</f>
+        <f t="shared" ref="M12:M19" si="18">G12+K12-L12</f>
         <v>-1.0800249583553523E-12</v>
       </c>
       <c r="P12" s="23">
@@ -3746,15 +3765,15 @@
         <v>7146.0778367657449</v>
       </c>
       <c r="S12" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>452.90578239397274</v>
       </c>
       <c r="T12" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-439.07186980046845</v>
       </c>
       <c r="U12" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>41.834438294441327</v>
       </c>
       <c r="V12" s="24">
@@ -3766,7 +3785,7 @@
         <v>7320.808925100001</v>
       </c>
       <c r="Z12" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>464.83405199999999</v>
       </c>
       <c r="AA12" s="24">
@@ -3774,7 +3793,7 @@
         <v>-463.14527489999909</v>
       </c>
       <c r="AB12" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>77.836112999999216</v>
       </c>
       <c r="AC12"/>
@@ -3782,8 +3801,8 @@
         <f t="shared" si="3"/>
         <v>7320.808925100001</v>
       </c>
-      <c r="AF12" s="92">
-        <f>AF11*(1+Investment_rate)-AG11</f>
+      <c r="AF12" s="68">
+        <f t="shared" si="4"/>
         <v>132.57593529116534</v>
       </c>
       <c r="AG12" s="24">
@@ -3791,25 +3810,25 @@
         <v>27.9357250642379</v>
       </c>
       <c r="AH12" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7188.2329898088356</v>
       </c>
       <c r="AI12" s="24">
-        <f>(AH11+C12-D12-E12)*Investment_rate</f>
+        <f t="shared" si="16"/>
         <v>455.64844866542808</v>
       </c>
       <c r="AJ12" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-442.62782128163326</v>
       </c>
       <c r="AK12" s="24">
-        <f t="shared" ref="AK12:AK19" si="16">G12+AI12-AJ12</f>
+        <f t="shared" ref="AK12:AK19" si="19">G12+AI12-AJ12</f>
         <v>48.133056047061473</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="C13" s="8">
@@ -3827,12 +3846,12 @@
         <v>765.02453267294993</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-798.73349267294998</v>
       </c>
       <c r="H13"/>
       <c r="I13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="J13" s="8">
@@ -3843,15 +3862,15 @@
         <v>6576.1602436973008</v>
       </c>
       <c r="K13" s="8">
-        <f>(J12+C13-D13-E13)*Investment_rate</f>
+        <f t="shared" si="9"/>
         <v>415.53876092661801</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-383.19473174633276</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7.9580786405131221E-13</v>
       </c>
       <c r="P13" s="23">
@@ -3867,15 +3886,15 @@
         <v>6734.7411874828167</v>
       </c>
       <c r="S13" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>426.74213260594468</v>
       </c>
       <c r="T13" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-411.33664928292819</v>
       </c>
       <c r="U13" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>39.34528921592289</v>
       </c>
       <c r="V13" s="24">
@@ -3887,7 +3906,7 @@
         <v>6885.2207940565504</v>
       </c>
       <c r="Z13" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>437.22599790600003</v>
       </c>
       <c r="AA13" s="24">
@@ -3895,7 +3914,7 @@
         <v>-435.58813104345063</v>
       </c>
       <c r="AB13" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74.080636276500684</v>
       </c>
       <c r="AC13"/>
@@ -3903,8 +3922,8 @@
         <f t="shared" si="3"/>
         <v>6885.2207940565504</v>
       </c>
-      <c r="AF13" s="92">
-        <f>AF12*(1+Investment_rate)-AG12</f>
+      <c r="AF13" s="68">
+        <f t="shared" si="4"/>
         <v>112.59476634439737</v>
       </c>
       <c r="AG13" s="24">
@@ -3912,25 +3931,25 @@
         <v>26.273549422915739</v>
       </c>
       <c r="AH13" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6772.6260277121528</v>
       </c>
       <c r="AI13" s="24">
-        <f>(AH12+C13-D13-E13)*Investment_rate</f>
+        <f t="shared" si="16"/>
         <v>429.27144178853013</v>
       </c>
       <c r="AJ13" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-415.60696209668276</v>
       </c>
       <c r="AK13" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>46.144911212262912</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="C14" s="8">
@@ -3948,12 +3967,12 @@
         <v>719.50557297891021</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-750.45039825891024</v>
       </c>
       <c r="H14"/>
       <c r="I14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="J14" s="8">
@@ -3964,15 +3983,15 @@
         <v>6218.4227705434296</v>
       </c>
       <c r="K14" s="8">
-        <f>(J13+C14-D14-E14)*Investment_rate</f>
+        <f t="shared" si="9"/>
         <v>392.71292510503804</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-357.73747315387118</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.0231815394945443E-12</v>
       </c>
       <c r="P14" s="23">
@@ -3988,15 +4007,15 @@
         <v>6349.5143264485014</v>
       </c>
       <c r="S14" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>402.22778173216898</v>
       </c>
       <c r="T14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-385.22686103431533</v>
       </c>
       <c r="U14" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37.004244507574072</v>
       </c>
       <c r="V14" s="24">
@@ -4008,7 +4027,7 @@
         <v>6475.5501568101854</v>
       </c>
       <c r="Z14" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>411.25655812659301</v>
       </c>
       <c r="AA14" s="24">
@@ -4016,7 +4035,7 @@
         <v>-409.670637246365</v>
       </c>
       <c r="AB14" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>70.47679711404777</v>
       </c>
       <c r="AC14"/>
@@ -4024,8 +4043,8 @@
         <f t="shared" si="3"/>
         <v>6475.5501568101854</v>
       </c>
-      <c r="AF14" s="92">
-        <f>AF13*(1+Investment_rate)-AG13</f>
+      <c r="AF14" s="68">
+        <f t="shared" si="4"/>
         <v>93.076902902145477</v>
       </c>
       <c r="AG14" s="24">
@@ -4033,25 +4052,25 @@
         <v>24.710273232252256</v>
       </c>
       <c r="AH14" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6382.4732539080396</v>
       </c>
       <c r="AI14" s="24">
-        <f>(AH13+C14-D14-E14)*Investment_rate</f>
+        <f t="shared" si="16"/>
         <v>404.50087214592912</v>
       </c>
       <c r="AJ14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-390.15277380411317</v>
       </c>
       <c r="AK14" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>44.203247691132049</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="C15" s="8">
@@ -4069,12 +4088,12 @@
         <v>676.69499138666424</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-705.10234099370427</v>
       </c>
       <c r="H15"/>
       <c r="I15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="J15" s="8">
@@ -4085,15 +4104,15 @@
         <v>5884.721354805909</v>
       </c>
       <c r="K15" s="8">
-        <f>(J14+C15-D15-E15)*Investment_rate</f>
+        <f t="shared" si="9"/>
         <v>371.40092525618337</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-333.70141573752062</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P15" s="23">
@@ -4109,15 +4128,15 @@
         <v>5988.8759121059102</v>
       </c>
       <c r="S15" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>379.26641861048768</v>
       </c>
       <c r="T15" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-360.6384143425912</v>
       </c>
       <c r="U15" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>34.802491959374606</v>
       </c>
       <c r="V15" s="24">
@@ -4129,7 +4148,7 @@
         <v>6090.2549224799805</v>
       </c>
       <c r="Z15" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>386.82856843218872</v>
       </c>
       <c r="AA15" s="24">
@@ -4137,7 +4156,7 @@
         <v>-385.29523433020495</v>
       </c>
       <c r="AB15" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>67.021461768689392</v>
       </c>
       <c r="AC15"/>
@@ -4145,8 +4164,8 @@
         <f t="shared" si="3"/>
         <v>6090.2549224799805</v>
       </c>
-      <c r="AF15" s="92">
-        <f>AF14*(1+Investment_rate)-AG14</f>
+      <c r="AF15" s="68">
+        <f t="shared" si="4"/>
         <v>73.951243844021946</v>
       </c>
       <c r="AG15" s="24">
@@ -4154,25 +4173,25 @@
         <v>23.24001197493325</v>
       </c>
       <c r="AH15" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6016.3036786359589</v>
       </c>
       <c r="AI15" s="24">
-        <f>(AH14+C15-D15-E15)*Investment_rate</f>
+        <f t="shared" si="16"/>
         <v>381.24395425806</v>
       </c>
       <c r="AJ15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-366.16957527208069</v>
       </c>
       <c r="AK15" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>42.311188536436418</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="C16" s="8">
@@ -4190,12 +4209,12 @@
         <v>636.4316393991586</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-662.50958633842129</v>
       </c>
       <c r="H16"/>
       <c r="I16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="J16" s="8">
@@ -4206,15 +4225,15 @@
         <v>5573.7303729394871</v>
       </c>
       <c r="K16" s="8">
-        <f>(J15+C16-D16-E16)*Investment_rate</f>
+        <f t="shared" si="9"/>
         <v>351.51860447199874</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-310.99098186642186</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-6.8212102632969618E-13</v>
       </c>
       <c r="P16" s="23">
@@ -4230,15 +4249,15 @@
         <v>5651.4024599896975</v>
       </c>
       <c r="S16" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>357.76787790999884</v>
       </c>
       <c r="T16" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-337.47345211621268</v>
       </c>
       <c r="U16" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32.731743687790242</v>
       </c>
       <c r="V16" s="24">
@@ -4250,7 +4269,7 @@
         <v>5727.8847545924218</v>
       </c>
       <c r="Z16" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>363.85061853244304</v>
       </c>
       <c r="AA16" s="24">
@@ -4258,7 +4277,7 @@
         <v>-362.37016788755864</v>
       </c>
       <c r="AB16" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>63.711200081580387</v>
       </c>
       <c r="AC16"/>
@@ -4266,8 +4285,8 @@
         <f t="shared" si="3"/>
         <v>5727.8847545924218</v>
       </c>
-      <c r="AF16" s="92">
-        <f>AF15*(1+Investment_rate)-AG15</f>
+      <c r="AF16" s="68">
+        <f t="shared" si="4"/>
         <v>55.148306499730012</v>
       </c>
       <c r="AG16" s="24">
@@ -4275,25 +4294,25 @@
         <v>21.857231262424722</v>
       </c>
       <c r="AH16" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5672.7364480926917</v>
       </c>
       <c r="AI16" s="24">
-        <f>(AH15+C16-D16-E16)*Investment_rate</f>
+        <f t="shared" si="16"/>
         <v>359.41354390180175</v>
       </c>
       <c r="AJ16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-343.56723054326721</v>
       </c>
       <c r="AK16" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>40.471188106647674</v>
       </c>
     </row>
     <row r="17" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="C17" s="8">
@@ -4311,12 +4330,12 @@
         <v>598.56395685490793</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-622.50351214515115</v>
       </c>
       <c r="H17"/>
       <c r="I17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="J17" s="8">
@@ -4327,15 +4346,15 @@
         <v>5284.2143098532915</v>
       </c>
       <c r="K17" s="8">
-        <f>(J16+C17-D17-E17)*Investment_rate</f>
+        <f t="shared" si="9"/>
         <v>332.98744905895461</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-289.51606308619557</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-9.6633812063373625E-13</v>
       </c>
       <c r="P17" s="23">
@@ -4351,15 +4370,15 @@
         <v>5335.7625171881464</v>
       </c>
       <c r="S17" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>337.64777428196726</v>
       </c>
       <c r="T17" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-315.63994280155111</v>
       </c>
       <c r="U17" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30.784204938367225</v>
       </c>
       <c r="V17" s="24">
@@ -4371,7 +4390,7 @@
         <v>5387.0756116941729</v>
       </c>
       <c r="Z17" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>342.23671195813068</v>
       </c>
       <c r="AA17" s="24">
@@ -4379,7 +4398,7 @@
         <v>-340.80914289824887</v>
       </c>
       <c r="AB17" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>60.5423427112284</v>
       </c>
       <c r="AC17"/>
@@ -4387,8 +4406,8 @@
         <f t="shared" si="3"/>
         <v>5387.0756116941729</v>
       </c>
-      <c r="AF17" s="92">
-        <f>AF16*(1+Investment_rate)-AG16</f>
+      <c r="AF17" s="68">
+        <f t="shared" si="4"/>
         <v>36.599973627289089</v>
       </c>
       <c r="AG17" s="24">
@@ -4396,25 +4415,25 @@
         <v>20.556726002310452</v>
       </c>
       <c r="AH17" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5350.4756380668841</v>
       </c>
       <c r="AI17" s="24">
-        <f>(AH16+C17-D17-E17)*Investment_rate</f>
+        <f t="shared" si="16"/>
         <v>338.92781356814692</v>
       </c>
       <c r="AJ17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-322.26081002580759</v>
       </c>
       <c r="AK17" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>38.685111448803355</v>
       </c>
     </row>
     <row r="18" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="C18" s="8">
@@ -4432,12 +4451,12 @@
         <v>562.94940142204098</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-584.92591317848417</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="J18" s="8">
@@ -4448,15 +4467,15 @@
         <v>5015.0226645606181</v>
       </c>
       <c r="K18" s="8">
-        <f>(J17+C18-D18-E18)*Investment_rate</f>
+        <f t="shared" si="9"/>
         <v>315.73426788581088</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-269.19164529267346</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P18" s="23">
@@ -4472,15 +4491,15 @@
         <v>5040.7112195910286</v>
       </c>
       <c r="S18" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>318.82716032590218</v>
       </c>
       <c r="T18" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-295.05129759711781</v>
       </c>
       <c r="U18" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28.952544744535828</v>
       </c>
       <c r="V18" s="24">
@@ -4492,7 +4511,7 @@
         <v>5066.5446127983696</v>
       </c>
       <c r="Z18" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>321.90594599626377</v>
       </c>
       <c r="AA18" s="24">
@@ -4500,7 +4519,7 @@
         <v>-320.53099889580335</v>
       </c>
       <c r="AB18" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>57.511031713582952</v>
       </c>
       <c r="AC18"/>
@@ -4508,8 +4527,8 @@
         <f t="shared" si="3"/>
         <v>5066.5446127983696</v>
       </c>
-      <c r="AF18" s="92">
-        <f>AF17*(1+Investment_rate)-AG17</f>
+      <c r="AF18" s="68">
+        <f t="shared" si="4"/>
         <v>18.239246042615985</v>
       </c>
       <c r="AG18" s="24">
@@ -4517,15 +4536,15 @@
         <v>19.333600805172978</v>
       </c>
       <c r="AH18" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5048.3053667557533</v>
       </c>
       <c r="AI18" s="24">
-        <f>(AH17+C18-D18-E18)*Investment_rate</f>
+        <f t="shared" si="16"/>
         <v>319.70994757862644</v>
       </c>
       <c r="AJ18" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-302.17027131113082</v>
       </c>
       <c r="AK18" s="24">
@@ -4535,7 +4554,7 @@
     </row>
     <row r="19" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="C19" s="8">
@@ -4553,12 +4572,12 @@
         <v>5294.5391203742956</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5314.7135581667108</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="8">
@@ -4569,15 +4588,15 @@
         <v>0</v>
       </c>
       <c r="K19" s="8">
-        <f>(J18+C19-D19-E19)*Investment_rate</f>
+        <f t="shared" si="9"/>
         <v>299.69089360609217</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5015.0226645606181</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P19" s="23">
@@ -4593,15 +4612,15 @@
         <v>0</v>
       </c>
       <c r="S19" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>301.2322069079168</v>
       </c>
       <c r="T19" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-5040.7112195910286</v>
       </c>
       <c r="U19" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27.229868332234219</v>
       </c>
       <c r="V19" s="24">
@@ -4610,7 +4629,7 @@
       </c>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>302.78221050035728</v>
       </c>
       <c r="AA19" s="24">
@@ -4618,13 +4637,13 @@
         <v>-5066.5446127983696</v>
       </c>
       <c r="AB19" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54.61326513201584</v>
       </c>
       <c r="AC19"/>
       <c r="AE19" s="23"/>
-      <c r="AF19" s="92">
-        <f>AF18*(1+Investment_rate)-AG18</f>
+      <c r="AF19" s="68">
+        <f t="shared" si="4"/>
         <v>-3.1974423109204508E-14</v>
       </c>
       <c r="AG19" s="24">
@@ -4632,19 +4651,19 @@
         <v>0</v>
       </c>
       <c r="AH19" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1974423109204508E-14</v>
       </c>
       <c r="AI19" s="24">
-        <f>(AH18+C19-D19-E19)*Investment_rate</f>
+        <f t="shared" si="16"/>
         <v>301.68785573780031</v>
       </c>
       <c r="AJ19" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5048.3053667557533</v>
       </c>
       <c r="AK19" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>35.279664326842976</v>
       </c>
     </row>
@@ -5163,17 +5182,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
@@ -5592,8 +5611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5625,18 +5644,18 @@
       <c r="E3" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
@@ -5942,22 +5961,22 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="22" t="s">
         <v>53</v>
       </c>
@@ -6408,21 +6427,21 @@
       <c r="H52"/>
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="81"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
     </row>
     <row r="54" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
+      <c r="A54" s="82"/>
       <c r="B54" s="22" t="s">
         <v>33</v>
       </c>
@@ -6791,21 +6810,21 @@
       <c r="H72"/>
     </row>
     <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="63" t="s">
+      <c r="A73" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="66"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="81"/>
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
     </row>
     <row r="74" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
+      <c r="A74" s="78"/>
       <c r="B74" s="53" t="s">
         <v>92</v>
       </c>
@@ -7239,36 +7258,36 @@
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="85" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="73"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
@@ -7585,50 +7604,50 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="70" t="s">
+      <c r="K24" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="70" t="s">
+      <c r="L24" s="89" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71" t="s">
+      <c r="A25" s="86"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71" t="s">
+      <c r="H25" s="86"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8098,50 +8117,50 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="72" t="s">
+      <c r="H40" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="74" t="s">
+      <c r="I40" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="70" t="s">
+      <c r="J40" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="70" t="s">
+      <c r="K40" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="70" t="s">
+      <c r="L40" s="89" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71" t="s">
+      <c r="A41" s="86"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="73"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71" t="s">
+      <c r="H41" s="86"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8606,17 +8625,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
@@ -8633,6 +8641,17 @@
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="K24:K25"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.16 - 6.17 Unit Linked 1pc entry fee.xlsx
+++ b/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.16 - 6.17 Unit Linked 1pc entry fee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VZhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
   <si>
     <t>Pricing basis</t>
   </si>
@@ -677,20 +677,33 @@
   <si>
     <t>==&gt; to eliminate losses in Year 1 under Account balance basis</t>
   </si>
+  <si>
+    <t>Best estimate basis (regular approach)</t>
+  </si>
+  <si>
+    <t>Best estimate plus profit margin basis (regular approach)</t>
+  </si>
+  <si>
+    <t>Account balance (regular approach)</t>
+  </si>
+  <si>
+    <t>Look at this ==&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,8 +865,24 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +916,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1438,10 +1473,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,10 +1491,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1467,6 +1502,46 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2706,7 +2781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3123,13 +3200,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL48"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3150,7 +3227,9 @@
     <col min="24" max="24" width="2.140625" style="2" customWidth="1"/>
     <col min="25" max="29" width="9.140625" style="2"/>
     <col min="30" max="30" width="1.7109375" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="2"/>
+    <col min="31" max="33" width="9.140625" style="2"/>
+    <col min="34" max="34" width="12.140625" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -3357,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="61">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D10:$D$20)*(1+Discount_rate)-D10
-+NPV(Discount_rate,'Shareholder cash flows'!$E10:$E$20)*(1+Discount_rate)-E10
-+NPV(Discount_rate,'Shareholder cash flows'!$F10:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C10:$C$20)*(1+Discount_rate)+C10</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D10:$D$21)*(1+Discount_rate)-D10
++NPV(Discount_rate,'Shareholder cash flows'!$E10:$E$21)*(1+Discount_rate)-E10
++NPV(Discount_rate,'Shareholder cash flows'!$F10:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C10:$C$21)*(1+Discount_rate)+C10</f>
         <v>9318.3156039411988</v>
       </c>
       <c r="K9" s="8"/>
@@ -3373,7 +3452,7 @@
         <v>281.68439605880121</v>
       </c>
       <c r="N9" s="62">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$M10:$M$20)+M9</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$M10:$M$21)+M9</f>
         <v>281.68439605879911</v>
       </c>
       <c r="P9" s="23">
@@ -3401,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="62">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$U10:$U$20)+U9</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$U10:$U$21)+U9</f>
         <v>281.68439605879502</v>
       </c>
       <c r="Y9" s="23">
@@ -3418,7 +3497,7 @@
         <v>-300</v>
       </c>
       <c r="AC9" s="62">
-        <f>NPV(Discount_rate,AB10:AB20)+AB9</f>
+        <f>NPV(Discount_rate,AB10:AB21)+AB9</f>
         <v>281.68439605879678</v>
       </c>
       <c r="AE9" s="23">
@@ -3447,7 +3526,7 @@
         <v>-100</v>
       </c>
       <c r="AL9" s="62">
-        <f>NPV(Discount_rate,AK10:AK20)+AK9</f>
+        <f>NPV(Discount_rate,AK10:AK21)+AK9</f>
         <v>281.68439605879701</v>
       </c>
     </row>
@@ -3480,10 +3559,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="8">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D11:$D$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$E11:$E$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$F11:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C11:$C$20)*(1+Discount_rate)</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D11:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E11:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F11:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C11:$C$21)*(1+Discount_rate)</f>
         <v>7808.3145401776728</v>
       </c>
       <c r="K10" s="61">
@@ -3613,10 +3692,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="8">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D12:$D$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$E12:$E$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$F12:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C12:$C$20)*(1+Discount_rate)</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D12:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E12:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F12:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C12:$C$21)*(1+Discount_rate)</f>
         <v>7369.5296125883324</v>
       </c>
       <c r="K11" s="8">
@@ -3734,10 +3813,10 @@
         <v>3</v>
       </c>
       <c r="J12" s="8">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D13:$D$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$E13:$E$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$F13:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C13:$C$20)*(1+Discount_rate)</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D13:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E13:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F13:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C13:$C$21)*(1+Discount_rate)</f>
         <v>6959.3549754436335</v>
       </c>
       <c r="K12" s="8">
@@ -3855,10 +3934,10 @@
         <v>4</v>
       </c>
       <c r="J13" s="8">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D14:$D$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$E14:$E$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$F14:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C14:$C$20)*(1+Discount_rate)</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D14:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E14:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F14:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C14:$C$21)*(1+Discount_rate)</f>
         <v>6576.1602436973008</v>
       </c>
       <c r="K13" s="8">
@@ -3976,10 +4055,10 @@
         <v>5</v>
       </c>
       <c r="J14" s="8">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D15:$D$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$E15:$E$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$F15:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C15:$C$20)*(1+Discount_rate)</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D15:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E15:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F15:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C15:$C$21)*(1+Discount_rate)</f>
         <v>6218.4227705434296</v>
       </c>
       <c r="K14" s="8">
@@ -4097,10 +4176,10 @@
         <v>6</v>
       </c>
       <c r="J15" s="8">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D16:$D$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$E16:$E$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$F16:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C16:$C$20)*(1+Discount_rate)</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D16:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E16:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F16:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C16:$C$21)*(1+Discount_rate)</f>
         <v>5884.721354805909</v>
       </c>
       <c r="K15" s="8">
@@ -4218,10 +4297,10 @@
         <v>7</v>
       </c>
       <c r="J16" s="8">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D17:$D$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$E17:$E$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$F17:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C17:$C$20)*(1+Discount_rate)</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D17:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E17:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F17:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C17:$C$21)*(1+Discount_rate)</f>
         <v>5573.7303729394871</v>
       </c>
       <c r="K16" s="8">
@@ -4310,7 +4389,7 @@
         <v>40.471188106647674</v>
       </c>
     </row>
-    <row r="17" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <f t="shared" si="17"/>
         <v>8</v>
@@ -4339,10 +4418,10 @@
         <v>8</v>
       </c>
       <c r="J17" s="8">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D18:$D$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$E18:$E$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$F18:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C18:$C$20)*(1+Discount_rate)</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D18:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E18:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F18:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C18:$C$21)*(1+Discount_rate)</f>
         <v>5284.2143098532915</v>
       </c>
       <c r="K17" s="8">
@@ -4431,7 +4510,7 @@
         <v>38.685111448803355</v>
       </c>
     </row>
-    <row r="18" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f t="shared" si="17"/>
         <v>9</v>
@@ -4460,10 +4539,10 @@
         <v>9</v>
       </c>
       <c r="J18" s="8">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D19:$D$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$E19:$E$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$F19:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C19:$C$20)*(1+Discount_rate)</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D19:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E19:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F19:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C19:$C$21)*(1+Discount_rate)</f>
         <v>5015.0226645606181</v>
       </c>
       <c r="K18" s="8">
@@ -4536,7 +4615,7 @@
         <v>19.333600805172978</v>
       </c>
       <c r="AH18" s="24">
-        <f t="shared" si="5"/>
+        <f>AE18-AF18</f>
         <v>5048.3053667557533</v>
       </c>
       <c r="AI18" s="24">
@@ -4552,7 +4631,7 @@
         <v>36.954305711273093</v>
       </c>
     </row>
-    <row r="19" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f t="shared" si="17"/>
         <v>10</v>
@@ -4581,10 +4660,10 @@
         <v>10</v>
       </c>
       <c r="J19" s="8">
-        <f>NPV(Discount_rate,'Shareholder cash flows'!$D20:$D$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$E20:$E$20)*(1+Discount_rate)
-+NPV(Discount_rate,'Shareholder cash flows'!$F20:$F$20)
--NPV(Discount_rate,'Shareholder cash flows'!$C20:$C$20)*(1+Discount_rate)</f>
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D21:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E21:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F21:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C21:$C$21)*(1+Discount_rate)</f>
         <v>0</v>
       </c>
       <c r="K19" s="8">
@@ -4667,17 +4746,40 @@
         <v>35.279664326842976</v>
       </c>
     </row>
-    <row r="20" spans="2:37" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
+    <row r="20" spans="2:38" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
       <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="100"/>
+    </row>
+    <row r="21" spans="2:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -4686,14 +4788,24 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-    </row>
-    <row r="22" spans="2:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="65">
+        <f>Q24/'Policyholder cash flows'!H6</f>
+        <v>0.35829637242249063</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="65">
+        <f>AF24/'Policyholder cash flows'!H6</f>
+        <v>0.25439561256186638</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -4701,219 +4813,1516 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+      <c r="I22" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
       <c r="O22"/>
-    </row>
-    <row r="23" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="P22" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="Y22" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AE22" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="103"/>
+      <c r="AI22" s="103"/>
+      <c r="AJ22" s="103"/>
+      <c r="AK22" s="103"/>
+      <c r="AL22" s="103"/>
+    </row>
+    <row r="23" spans="2:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23"/>
+      <c r="G23" s="95" t="s">
+        <v>123</v>
+      </c>
       <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="96" t="s">
+        <v>116</v>
+      </c>
       <c r="O23"/>
-      <c r="P23"/>
-    </row>
-    <row r="24" spans="2:37" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
+      <c r="P23" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="V23" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="W23" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y23" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA23" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB23" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC23" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE23" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF23" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG23" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH23" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI23" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ23" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK23" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL23" s="96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D10:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E10:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F10:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C10:$C$21)*(1+Discount_rate)</f>
+        <v>-281.68439605880121</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8">
+        <f>J24</f>
+        <v>-281.68439605880121</v>
+      </c>
+      <c r="M24" s="8">
+        <f>-L24</f>
+        <v>281.68439605880121</v>
+      </c>
+      <c r="N24" s="62">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$M25:$M35)+M24</f>
+        <v>281.68439605879911</v>
+      </c>
       <c r="O24"/>
-      <c r="P24"/>
-    </row>
-    <row r="25" spans="2:37" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
+      <c r="P24" s="8">
+        <f>J24</f>
+        <v>-281.68439605880121</v>
+      </c>
+      <c r="Q24" s="8">
+        <f>-P24</f>
+        <v>281.68439605880121</v>
+      </c>
+      <c r="R24" s="8">
+        <f>P24+Q24</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8">
+        <f>R24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="62">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$V25:$V35)+V24</f>
+        <v>281.68439605880121</v>
+      </c>
+      <c r="Y24" s="8">
+        <f>'Policyholder cash flows'!D6</f>
+        <v>9900</v>
+      </c>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8">
+        <f>Y24</f>
+        <v>9900</v>
+      </c>
+      <c r="AB24" s="8">
+        <f>-AA24</f>
+        <v>-9900</v>
+      </c>
+      <c r="AC24" s="62">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$AB25:$AB35)+AB24</f>
+        <v>281.68439605879576</v>
+      </c>
+      <c r="AE24" s="8">
+        <f>Y24</f>
+        <v>9900</v>
+      </c>
+      <c r="AF24" s="104">
+        <f>Single_premium*(Initial_comm_rate-Entry_fee)</f>
+        <v>199.99999999999997</v>
+      </c>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8">
+        <f>AE24-AF24</f>
+        <v>9700</v>
+      </c>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8">
+        <f>AH24</f>
+        <v>9700</v>
+      </c>
+      <c r="AK24" s="8">
+        <f>-AJ24</f>
+        <v>-9700</v>
+      </c>
+      <c r="AL24" s="62">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$AK25:$AK35)+AK24</f>
+        <v>281.68439605879939</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <f>C10</f>
+        <v>10000</v>
+      </c>
+      <c r="D25" s="8">
+        <f>D10</f>
+        <v>300</v>
+      </c>
+      <c r="E25" s="8">
+        <f>E10</f>
+        <v>100</v>
+      </c>
+      <c r="F25" s="8">
+        <f>F10</f>
+        <v>2069.0999999999995</v>
+      </c>
+      <c r="G25" s="8">
+        <f>G10</f>
+        <v>7530.9000000000005</v>
+      </c>
       <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D11:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E11:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F11:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C11:$C$21)*(1+Discount_rate)</f>
+        <v>7808.3145401776728</v>
+      </c>
+      <c r="K25" s="8">
+        <f>(C25-D25-E25+J24)*Investment_rate</f>
+        <v>559.0989362364719</v>
+      </c>
+      <c r="L25" s="8">
+        <f>J25-J24</f>
+        <v>8089.998936236474</v>
+      </c>
+      <c r="M25" s="8">
+        <f>G25+K25-L25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="66"/>
       <c r="O25"/>
-      <c r="P25"/>
-    </row>
-    <row r="26" spans="2:37" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
+      <c r="P25" s="8">
+        <f t="shared" ref="P25:P34" si="20">J25</f>
+        <v>7808.3145401776728</v>
+      </c>
+      <c r="Q25" s="8">
+        <f>$R$21*'Policyholder cash flows'!H7</f>
+        <v>245.37844851758945</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" ref="R25:R34" si="21">P25+Q25</f>
+        <v>8053.6929886952621</v>
+      </c>
+      <c r="S25" s="8">
+        <f>(C25-D25-E25+R24)*Investment_rate</f>
+        <v>576</v>
+      </c>
+      <c r="T25" s="8">
+        <f>R25-R24</f>
+        <v>8053.6929886952621</v>
+      </c>
+      <c r="U25" s="105">
+        <f>G25+S25-T25</f>
+        <v>53.207011304738444</v>
+      </c>
+      <c r="V25" s="105">
+        <f>$R$21*'Policyholder cash flows'!F6</f>
+        <v>53.207011304739858</v>
+      </c>
+      <c r="W25" s="106">
+        <f>Q24*(1+Investment_rate)-Q25</f>
+        <v>53.207011304739865</v>
+      </c>
+      <c r="Y25" s="8">
+        <f>'Policyholder cash flows'!D7</f>
+        <v>8276.4000000000015</v>
+      </c>
+      <c r="Z25" s="8">
+        <f>(C25-D25-E25+Y24)*Investment_rate</f>
+        <v>1170</v>
+      </c>
+      <c r="AA25" s="8">
+        <f>Y25-Y24</f>
+        <v>-1623.5999999999985</v>
+      </c>
+      <c r="AB25" s="8">
+        <f>G25+Z25-AA25</f>
+        <v>10324.5</v>
+      </c>
+      <c r="AC25" s="66">
+        <f>AB24*(1+Investment_rate)+AB25</f>
+        <v>-169.5</v>
+      </c>
+      <c r="AE25" s="8">
+        <f t="shared" ref="AE25:AE34" si="22">Y25</f>
+        <v>8276.4000000000015</v>
+      </c>
+      <c r="AF25" s="8">
+        <f>$AG$21*'Policyholder cash flows'!H7</f>
+        <v>174.22225153456284</v>
+      </c>
+      <c r="AG25" s="97">
+        <f>AF24*(1+Investment_rate)-AF25</f>
+        <v>37.777748465437128</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" ref="AH25:AH34" si="23">AE25-AF25</f>
+        <v>8102.1777484654385</v>
+      </c>
+      <c r="AI25" s="8">
+        <f>(C25-D25-E25+AH24)*Investment_rate</f>
+        <v>1158</v>
+      </c>
+      <c r="AJ25" s="8">
+        <f>AH25-AH24</f>
+        <v>-1597.8222515345615</v>
+      </c>
+      <c r="AK25" s="8">
+        <f>G25+AI25-AJ25</f>
+        <v>10286.722251534564</v>
+      </c>
+      <c r="AL25" s="66">
+        <f>AK24*(1+Investment_rate)+AK25</f>
+        <v>4.7222515345638385</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8">
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <f>E11</f>
+        <v>40</v>
+      </c>
+      <c r="F26" s="8">
+        <f>F11</f>
+        <v>864.88380000000097</v>
+      </c>
+      <c r="G26" s="8">
+        <f>G11</f>
+        <v>-904.88380000000097</v>
+      </c>
       <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+      <c r="I26" s="5">
+        <f t="shared" ref="I26:I34" si="24">1+I25</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D12:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E12:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F12:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C12:$C$21)*(1+Discount_rate)</f>
+        <v>7369.5296125883324</v>
+      </c>
+      <c r="K26" s="8">
+        <f>(C26-D26-E26+J25)*Investment_rate</f>
+        <v>466.09887241066036</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" ref="L26:L34" si="25">J26-J25</f>
+        <v>-438.78492758934044</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" ref="M26:M34" si="26">G26+K26-L26</f>
+        <v>0</v>
+      </c>
       <c r="O26"/>
-      <c r="P26"/>
-    </row>
-    <row r="27" spans="2:37" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
+      <c r="P26" s="8">
+        <f t="shared" si="20"/>
+        <v>7369.5296125883324</v>
+      </c>
+      <c r="Q26" s="8">
+        <f>$R$21*'Policyholder cash flows'!H8</f>
+        <v>215.62009397788233</v>
+      </c>
+      <c r="R26" s="8">
+        <f t="shared" si="21"/>
+        <v>7585.1497065662152</v>
+      </c>
+      <c r="S26" s="8">
+        <f>(C26-D26-E26+R25)*Investment_rate</f>
+        <v>480.82157932171572</v>
+      </c>
+      <c r="T26" s="8">
+        <f t="shared" ref="T26:T34" si="27">R26-R25</f>
+        <v>-468.54328212904693</v>
+      </c>
+      <c r="U26" s="105">
+        <f t="shared" ref="U26:U34" si="28">G26+S26-T26</f>
+        <v>44.481061450761672</v>
+      </c>
+      <c r="V26" s="105">
+        <f>$R$21*'Policyholder cash flows'!F7</f>
+        <v>44.481061450762525</v>
+      </c>
+      <c r="W26" s="106">
+        <f>Q25*(1+Investment_rate)-Q26</f>
+        <v>44.481061450762468</v>
+      </c>
+      <c r="Y26" s="8">
+        <f>'Policyholder cash flows'!D8</f>
+        <v>7783.9542000000001</v>
+      </c>
+      <c r="Z26" s="8">
+        <f>(C26-D26-E26+Y25)*Investment_rate</f>
+        <v>494.18400000000008</v>
+      </c>
+      <c r="AA26" s="8">
+        <f t="shared" ref="AA26:AA34" si="29">Y26-Y25</f>
+        <v>-492.44580000000133</v>
+      </c>
+      <c r="AB26" s="8">
+        <f t="shared" ref="AB26:AB34" si="30">G26+Z26-AA26</f>
+        <v>81.746000000000436</v>
+      </c>
+      <c r="AE26" s="8">
+        <f t="shared" si="22"/>
+        <v>7783.9542000000001</v>
+      </c>
+      <c r="AF26" s="8">
+        <f>$AG$21*'Policyholder cash flows'!H8</f>
+        <v>153.09338890953114</v>
+      </c>
+      <c r="AG26" s="97">
+        <f>AF25*(1+Investment_rate)-AF26</f>
+        <v>31.582197717105487</v>
+      </c>
+      <c r="AH26" s="8">
+        <f>AE26-AF26</f>
+        <v>7630.8608110904688</v>
+      </c>
+      <c r="AI26" s="8">
+        <f>(C26-D26-E26+AH25)*Investment_rate</f>
+        <v>483.73066490792627</v>
+      </c>
+      <c r="AJ26" s="8">
+        <f t="shared" ref="AJ26:AJ34" si="31">AH26-AH25</f>
+        <v>-471.31693737496971</v>
+      </c>
+      <c r="AK26" s="8">
+        <f t="shared" ref="AK26:AK34" si="32">G26+AI26-AJ26</f>
+        <v>50.163802282895006</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8">
+        <f>C12</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <f>E12</f>
+        <v>36.72</v>
+      </c>
+      <c r="F27" s="8">
+        <f>F12</f>
+        <v>813.42321389999984</v>
+      </c>
+      <c r="G27" s="8">
+        <f>G12</f>
+        <v>-850.14321389999986</v>
+      </c>
       <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="I27" s="5">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="J27" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D13:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E13:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F13:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C13:$C$21)*(1+Discount_rate)</f>
+        <v>6959.3549754436335</v>
+      </c>
+      <c r="K27" s="8">
+        <f>(C27-D27-E27+J26)*Investment_rate</f>
+        <v>439.96857675529992</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="25"/>
+        <v>-410.17463714469886</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="26"/>
+        <v>-1.0800249583553523E-12</v>
+      </c>
       <c r="O27"/>
-      <c r="P27"/>
-    </row>
-    <row r="28" spans="2:37" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
+      <c r="P27" s="8">
+        <f t="shared" si="20"/>
+        <v>6959.3549754436335</v>
+      </c>
+      <c r="Q27" s="8">
+        <f>$R$21*'Policyholder cash flows'!H9</f>
+        <v>186.72286132211315</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" si="21"/>
+        <v>7146.0778367657467</v>
+      </c>
+      <c r="S27" s="8">
+        <f>(C27-D27-E27+R26)*Investment_rate</f>
+        <v>452.90578239397286</v>
+      </c>
+      <c r="T27" s="8">
+        <f t="shared" si="27"/>
+        <v>-439.07186980046845</v>
+      </c>
+      <c r="U27" s="105">
+        <f t="shared" si="28"/>
+        <v>41.834438294441441</v>
+      </c>
+      <c r="V27" s="105">
+        <f>$R$21*'Policyholder cash flows'!F8</f>
+        <v>41.834438294442151</v>
+      </c>
+      <c r="W27" s="106">
+        <f>Q26*(1+Investment_rate)-Q27</f>
+        <v>41.834438294442151</v>
+      </c>
+      <c r="Y27" s="8">
+        <f>'Policyholder cash flows'!D9</f>
+        <v>7320.808925100001</v>
+      </c>
+      <c r="Z27" s="8">
+        <f>(C27-D27-E27+Y26)*Investment_rate</f>
+        <v>464.83405199999999</v>
+      </c>
+      <c r="AA27" s="8">
+        <f t="shared" si="29"/>
+        <v>-463.14527489999909</v>
+      </c>
+      <c r="AB27" s="8">
+        <f t="shared" si="30"/>
+        <v>77.836112999999216</v>
+      </c>
+      <c r="AE27" s="8">
+        <f t="shared" si="22"/>
+        <v>7320.808925100001</v>
+      </c>
+      <c r="AF27" s="8">
+        <f>$AG$21*'Policyholder cash flows'!H9</f>
+        <v>132.57593529116537</v>
+      </c>
+      <c r="AG27" s="97">
+        <f>AF26*(1+Investment_rate)-AF27</f>
+        <v>29.703056952937658</v>
+      </c>
+      <c r="AH27" s="8">
+        <f t="shared" si="23"/>
+        <v>7188.2329898088356</v>
+      </c>
+      <c r="AI27" s="8">
+        <f>(C27-D27-E27+AH26)*Investment_rate</f>
+        <v>455.64844866542808</v>
+      </c>
+      <c r="AJ27" s="8">
+        <f t="shared" si="31"/>
+        <v>-442.62782128163326</v>
+      </c>
+      <c r="AK27" s="8">
+        <f t="shared" si="32"/>
+        <v>48.133056047061473</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8">
+        <f>C13</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <f>E13</f>
+        <v>33.708959999999998</v>
+      </c>
+      <c r="F28" s="8">
+        <f>F13</f>
+        <v>765.02453267294993</v>
+      </c>
+      <c r="G28" s="8">
+        <f>G13</f>
+        <v>-798.73349267294998</v>
+      </c>
       <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
+      <c r="I28" s="5">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="J28" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D14:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E14:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F14:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C14:$C$21)*(1+Discount_rate)</f>
+        <v>6576.1602436973008</v>
+      </c>
+      <c r="K28" s="8">
+        <f>(C28-D28-E28+J27)*Investment_rate</f>
+        <v>415.53876092661801</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="25"/>
+        <v>-383.19473174633276</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="26"/>
+        <v>7.9580786405131221E-13</v>
+      </c>
       <c r="O28"/>
-      <c r="P28"/>
-    </row>
-    <row r="29" spans="2:37" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
+      <c r="P28" s="8">
+        <f t="shared" si="20"/>
+        <v>6576.1602436973008</v>
+      </c>
+      <c r="Q28" s="8">
+        <f>$R$21*'Policyholder cash flows'!H10</f>
+        <v>158.58094378551709</v>
+      </c>
+      <c r="R28" s="8">
+        <f t="shared" si="21"/>
+        <v>6734.7411874828176</v>
+      </c>
+      <c r="S28" s="8">
+        <f>(C28-D28-E28+R27)*Investment_rate</f>
+        <v>426.74213260594479</v>
+      </c>
+      <c r="T28" s="8">
+        <f t="shared" si="27"/>
+        <v>-411.3366492829291</v>
+      </c>
+      <c r="U28" s="105">
+        <f t="shared" si="28"/>
+        <v>39.345289215923913</v>
+      </c>
+      <c r="V28" s="105">
+        <f>$R$21*'Policyholder cash flows'!F9</f>
+        <v>39.345289215922847</v>
+      </c>
+      <c r="W28" s="106">
+        <f>Q27*(1+Investment_rate)-Q28</f>
+        <v>39.345289215922861</v>
+      </c>
+      <c r="Y28" s="8">
+        <f>'Policyholder cash flows'!D10</f>
+        <v>6885.2207940565504</v>
+      </c>
+      <c r="Z28" s="8">
+        <f>(C28-D28-E28+Y27)*Investment_rate</f>
+        <v>437.22599790600003</v>
+      </c>
+      <c r="AA28" s="8">
+        <f t="shared" si="29"/>
+        <v>-435.58813104345063</v>
+      </c>
+      <c r="AB28" s="8">
+        <f t="shared" si="30"/>
+        <v>74.080636276500684</v>
+      </c>
+      <c r="AE28" s="8">
+        <f t="shared" si="22"/>
+        <v>6885.2207940565504</v>
+      </c>
+      <c r="AF28" s="8">
+        <f>$AG$21*'Policyholder cash flows'!H10</f>
+        <v>112.59476634439737</v>
+      </c>
+      <c r="AG28" s="97">
+        <f>AF27*(1+Investment_rate)-AF28</f>
+        <v>27.935725064237928</v>
+      </c>
+      <c r="AH28" s="8">
+        <f t="shared" si="23"/>
+        <v>6772.6260277121528</v>
+      </c>
+      <c r="AI28" s="8">
+        <f>(C28-D28-E28+AH27)*Investment_rate</f>
+        <v>429.27144178853013</v>
+      </c>
+      <c r="AJ28" s="8">
+        <f t="shared" si="31"/>
+        <v>-415.60696209668276</v>
+      </c>
+      <c r="AK28" s="8">
+        <f t="shared" si="32"/>
+        <v>46.144911212262912</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8">
+        <f>C14</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <f>E14</f>
+        <v>30.94482528</v>
+      </c>
+      <c r="F29" s="8">
+        <f>F14</f>
+        <v>719.50557297891021</v>
+      </c>
+      <c r="G29" s="8">
+        <f>G14</f>
+        <v>-750.45039825891024</v>
+      </c>
       <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
+      <c r="I29" s="5">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="J29" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D15:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E15:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F15:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C15:$C$21)*(1+Discount_rate)</f>
+        <v>6218.4227705434296</v>
+      </c>
+      <c r="K29" s="8">
+        <f>(C29-D29-E29+J28)*Investment_rate</f>
+        <v>392.71292510503804</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="25"/>
+        <v>-357.73747315387118</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="26"/>
+        <v>-1.0231815394945443E-12</v>
+      </c>
       <c r="O29"/>
-      <c r="P29"/>
-    </row>
-    <row r="30" spans="2:37" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
+      <c r="P29" s="8">
+        <f t="shared" si="20"/>
+        <v>6218.4227705434296</v>
+      </c>
+      <c r="Q29" s="8">
+        <f>$R$21*'Policyholder cash flows'!H11</f>
+        <v>131.09155590507271</v>
+      </c>
+      <c r="R29" s="8">
+        <f t="shared" si="21"/>
+        <v>6349.5143264485023</v>
+      </c>
+      <c r="S29" s="8">
+        <f>(C29-D29-E29+R28)*Investment_rate</f>
+        <v>402.22778173216903</v>
+      </c>
+      <c r="T29" s="8">
+        <f t="shared" si="27"/>
+        <v>-385.22686103431533</v>
+      </c>
+      <c r="U29" s="105">
+        <f t="shared" si="28"/>
+        <v>37.004244507574128</v>
+      </c>
+      <c r="V29" s="105">
+        <f>$R$21*'Policyholder cash flows'!F10</f>
+        <v>37.004244507575436</v>
+      </c>
+      <c r="W29" s="106">
+        <f>Q28*(1+Investment_rate)-Q29</f>
+        <v>37.004244507575407</v>
+      </c>
+      <c r="Y29" s="8">
+        <f>'Policyholder cash flows'!D11</f>
+        <v>6475.5501568101854</v>
+      </c>
+      <c r="Z29" s="8">
+        <f>(C29-D29-E29+Y28)*Investment_rate</f>
+        <v>411.25655812659301</v>
+      </c>
+      <c r="AA29" s="8">
+        <f t="shared" si="29"/>
+        <v>-409.670637246365</v>
+      </c>
+      <c r="AB29" s="8">
+        <f t="shared" si="30"/>
+        <v>70.47679711404777</v>
+      </c>
+      <c r="AE29" s="8">
+        <f t="shared" si="22"/>
+        <v>6475.5501568101854</v>
+      </c>
+      <c r="AF29" s="8">
+        <f>$AG$21*'Policyholder cash flows'!H11</f>
+        <v>93.076902902145491</v>
+      </c>
+      <c r="AG29" s="97">
+        <f>AF28*(1+Investment_rate)-AF29</f>
+        <v>26.273549422915721</v>
+      </c>
+      <c r="AH29" s="8">
+        <f>AE29-AF29</f>
+        <v>6382.4732539080396</v>
+      </c>
+      <c r="AI29" s="8">
+        <f>(C29-D29-E29+AH28)*Investment_rate</f>
+        <v>404.50087214592912</v>
+      </c>
+      <c r="AJ29" s="8">
+        <f t="shared" si="31"/>
+        <v>-390.15277380411317</v>
+      </c>
+      <c r="AK29" s="8">
+        <f t="shared" si="32"/>
+        <v>44.203247691132049</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8">
+        <f>C15</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <f>E15</f>
+        <v>28.40734960704</v>
+      </c>
+      <c r="F30" s="8">
+        <f>F15</f>
+        <v>676.69499138666424</v>
+      </c>
+      <c r="G30" s="8">
+        <f>G15</f>
+        <v>-705.10234099370427</v>
+      </c>
       <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
+      <c r="I30" s="5">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="J30" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D16:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E16:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F16:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C16:$C$21)*(1+Discount_rate)</f>
+        <v>5884.721354805909</v>
+      </c>
+      <c r="K30" s="8">
+        <f>(C30-D30-E30+J29)*Investment_rate</f>
+        <v>371.40092525618337</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="25"/>
+        <v>-333.70141573752062</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="O30"/>
-      <c r="P30"/>
-    </row>
-    <row r="31" spans="2:37" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
+      <c r="P30" s="8">
+        <f t="shared" si="20"/>
+        <v>5884.721354805909</v>
+      </c>
+      <c r="Q30" s="8">
+        <f>$R$21*'Policyholder cash flows'!H12</f>
+        <v>104.15455730000237</v>
+      </c>
+      <c r="R30" s="8">
+        <f t="shared" si="21"/>
+        <v>5988.8759121059111</v>
+      </c>
+      <c r="S30" s="8">
+        <f>(C30-D30-E30+R29)*Investment_rate</f>
+        <v>379.26641861048773</v>
+      </c>
+      <c r="T30" s="8">
+        <f t="shared" si="27"/>
+        <v>-360.6384143425912</v>
+      </c>
+      <c r="U30" s="105">
+        <f t="shared" si="28"/>
+        <v>34.802491959374663</v>
+      </c>
+      <c r="V30" s="105">
+        <f>$R$21*'Policyholder cash flows'!F11</f>
+        <v>34.802491959374699</v>
+      </c>
+      <c r="W30" s="106">
+        <f>Q29*(1+Investment_rate)-Q30</f>
+        <v>34.802491959374706</v>
+      </c>
+      <c r="Y30" s="8">
+        <f>'Policyholder cash flows'!D12</f>
+        <v>6090.2549224799805</v>
+      </c>
+      <c r="Z30" s="8">
+        <f>(C30-D30-E30+Y29)*Investment_rate</f>
+        <v>386.82856843218872</v>
+      </c>
+      <c r="AA30" s="8">
+        <f t="shared" si="29"/>
+        <v>-385.29523433020495</v>
+      </c>
+      <c r="AB30" s="8">
+        <f t="shared" si="30"/>
+        <v>67.021461768689392</v>
+      </c>
+      <c r="AE30" s="8">
+        <f t="shared" si="22"/>
+        <v>6090.2549224799805</v>
+      </c>
+      <c r="AF30" s="8">
+        <f>$AG$21*'Policyholder cash flows'!H12</f>
+        <v>73.951243844021974</v>
+      </c>
+      <c r="AG30" s="97">
+        <f>AF29*(1+Investment_rate)-AF30</f>
+        <v>24.710273232252248</v>
+      </c>
+      <c r="AH30" s="8">
+        <f>AE30-AF30</f>
+        <v>6016.3036786359589</v>
+      </c>
+      <c r="AI30" s="8">
+        <f>(C30-D30-E30+AH29)*Investment_rate</f>
+        <v>381.24395425806</v>
+      </c>
+      <c r="AJ30" s="8">
+        <f t="shared" si="31"/>
+        <v>-366.16957527208069</v>
+      </c>
+      <c r="AK30" s="8">
+        <f t="shared" si="32"/>
+        <v>42.311188536436418</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8">
+        <f>C16</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <f>E16</f>
+        <v>26.07794693926272</v>
+      </c>
+      <c r="F31" s="8">
+        <f>F16</f>
+        <v>636.4316393991586</v>
+      </c>
+      <c r="G31" s="8">
+        <f>G16</f>
+        <v>-662.50958633842129</v>
+      </c>
       <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="I31" s="5">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="J31" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D17:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E17:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F17:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C17:$C$21)*(1+Discount_rate)</f>
+        <v>5573.7303729394871</v>
+      </c>
+      <c r="K31" s="8">
+        <f>(C31-D31-E31+J30)*Investment_rate</f>
+        <v>351.51860447199874</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="25"/>
+        <v>-310.99098186642186</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="26"/>
+        <v>-6.8212102632969618E-13</v>
+      </c>
       <c r="O31"/>
-      <c r="P31"/>
-    </row>
-    <row r="32" spans="2:37" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
+      <c r="P31" s="8">
+        <f t="shared" si="20"/>
+        <v>5573.7303729394871</v>
+      </c>
+      <c r="Q31" s="8">
+        <f>$R$21*'Policyholder cash flows'!H13</f>
+        <v>77.672087050210592</v>
+      </c>
+      <c r="R31" s="8">
+        <f t="shared" si="21"/>
+        <v>5651.4024599896975</v>
+      </c>
+      <c r="S31" s="8">
+        <f>(C31-D31-E31+R30)*Investment_rate</f>
+        <v>357.7678779099989</v>
+      </c>
+      <c r="T31" s="8">
+        <f t="shared" si="27"/>
+        <v>-337.47345211621359</v>
+      </c>
+      <c r="U31" s="105">
+        <f t="shared" si="28"/>
+        <v>32.731743687791209</v>
+      </c>
+      <c r="V31" s="105">
+        <f>$R$21*'Policyholder cash flows'!F12</f>
+        <v>32.731743687791905</v>
+      </c>
+      <c r="W31" s="106">
+        <f>Q30*(1+Investment_rate)-Q31</f>
+        <v>32.731743687791919</v>
+      </c>
+      <c r="Y31" s="8">
+        <f>'Policyholder cash flows'!D13</f>
+        <v>5727.8847545924218</v>
+      </c>
+      <c r="Z31" s="8">
+        <f>(C31-D31-E31+Y30)*Investment_rate</f>
+        <v>363.85061853244304</v>
+      </c>
+      <c r="AA31" s="8">
+        <f t="shared" si="29"/>
+        <v>-362.37016788755864</v>
+      </c>
+      <c r="AB31" s="8">
+        <f t="shared" si="30"/>
+        <v>63.711200081580387</v>
+      </c>
+      <c r="AE31" s="8">
+        <f t="shared" si="22"/>
+        <v>5727.8847545924218</v>
+      </c>
+      <c r="AF31" s="8">
+        <f>$AG$21*'Policyholder cash flows'!H13</f>
+        <v>55.148306499730033</v>
+      </c>
+      <c r="AG31" s="97">
+        <f>AF30*(1+Investment_rate)-AF31</f>
+        <v>23.24001197493326</v>
+      </c>
+      <c r="AH31" s="8">
+        <f t="shared" si="23"/>
+        <v>5672.7364480926917</v>
+      </c>
+      <c r="AI31" s="8">
+        <f>(C31-D31-E31+AH30)*Investment_rate</f>
+        <v>359.41354390180175</v>
+      </c>
+      <c r="AJ31" s="8">
+        <f t="shared" si="31"/>
+        <v>-343.56723054326721</v>
+      </c>
+      <c r="AK31" s="8">
+        <f t="shared" si="32"/>
+        <v>40.471188106647674</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8">
+        <f>C17</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <f>E17</f>
+        <v>23.939555290243177</v>
+      </c>
+      <c r="F32" s="8">
+        <f>F17</f>
+        <v>598.56395685490793</v>
+      </c>
+      <c r="G32" s="8">
+        <f>G17</f>
+        <v>-622.50351214515115</v>
+      </c>
       <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
+      <c r="I32" s="5">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="J32" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D18:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E18:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F18:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C18:$C$21)*(1+Discount_rate)</f>
+        <v>5284.2143098532915</v>
+      </c>
+      <c r="K32" s="8">
+        <f>(C32-D32-E32+J31)*Investment_rate</f>
+        <v>332.98744905895461</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="25"/>
+        <v>-289.51606308619557</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="26"/>
+        <v>-9.6633812063373625E-13</v>
+      </c>
       <c r="O32"/>
-      <c r="P32"/>
-    </row>
-    <row r="33" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
+      <c r="P32" s="8">
+        <f t="shared" si="20"/>
+        <v>5284.2143098532915</v>
+      </c>
+      <c r="Q32" s="8">
+        <f>$R$21*'Policyholder cash flows'!H14</f>
+        <v>51.548207334854951</v>
+      </c>
+      <c r="R32" s="8">
+        <f t="shared" si="21"/>
+        <v>5335.7625171881464</v>
+      </c>
+      <c r="S32" s="8">
+        <f>(C32-D32-E32+R31)*Investment_rate</f>
+        <v>337.64777428196726</v>
+      </c>
+      <c r="T32" s="8">
+        <f t="shared" si="27"/>
+        <v>-315.63994280155111</v>
+      </c>
+      <c r="U32" s="105">
+        <f t="shared" si="28"/>
+        <v>30.784204938367225</v>
+      </c>
+      <c r="V32" s="105">
+        <f>$R$21*'Policyholder cash flows'!F13</f>
+        <v>30.784204938368291</v>
+      </c>
+      <c r="W32" s="106">
+        <f>Q31*(1+Investment_rate)-Q32</f>
+        <v>30.784204938368276</v>
+      </c>
+      <c r="Y32" s="8">
+        <f>'Policyholder cash flows'!D14</f>
+        <v>5387.0756116941729</v>
+      </c>
+      <c r="Z32" s="8">
+        <f>(C32-D32-E32+Y31)*Investment_rate</f>
+        <v>342.23671195813068</v>
+      </c>
+      <c r="AA32" s="8">
+        <f t="shared" si="29"/>
+        <v>-340.80914289824887</v>
+      </c>
+      <c r="AB32" s="8">
+        <f t="shared" si="30"/>
+        <v>60.5423427112284</v>
+      </c>
+      <c r="AE32" s="8">
+        <f t="shared" si="22"/>
+        <v>5387.0756116941729</v>
+      </c>
+      <c r="AF32" s="8">
+        <f>$AG$21*'Policyholder cash flows'!H14</f>
+        <v>36.599973627289124</v>
+      </c>
+      <c r="AG32" s="97">
+        <f>AF31*(1+Investment_rate)-AF32</f>
+        <v>21.857231262424712</v>
+      </c>
+      <c r="AH32" s="8">
+        <f t="shared" si="23"/>
+        <v>5350.4756380668841</v>
+      </c>
+      <c r="AI32" s="8">
+        <f>(C32-D32-E32+AH31)*Investment_rate</f>
+        <v>338.92781356814692</v>
+      </c>
+      <c r="AJ32" s="8">
+        <f t="shared" si="31"/>
+        <v>-322.26081002580759</v>
+      </c>
+      <c r="AK32" s="8">
+        <f t="shared" si="32"/>
+        <v>38.685111448803355</v>
+      </c>
+    </row>
+    <row r="33" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>9</v>
+      </c>
+      <c r="C33" s="8">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <f>E18</f>
+        <v>21.976511756443234</v>
+      </c>
+      <c r="F33" s="8">
+        <f>F18</f>
+        <v>562.94940142204098</v>
+      </c>
+      <c r="G33" s="8">
+        <f>G18</f>
+        <v>-584.92591317848417</v>
+      </c>
       <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
+      <c r="I33" s="5">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="J33" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D19:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E19:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F19:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C19:$C$21)*(1+Discount_rate)</f>
+        <v>5015.0226645606181</v>
+      </c>
+      <c r="K33" s="8">
+        <f>(C33-D33-E33+J32)*Investment_rate</f>
+        <v>315.73426788581088</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="25"/>
+        <v>-269.19164529267346</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="O33"/>
-      <c r="P33"/>
-    </row>
-    <row r="34" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
+      <c r="P33" s="8">
+        <f t="shared" si="20"/>
+        <v>5015.0226645606181</v>
+      </c>
+      <c r="Q33" s="8">
+        <f>$R$21*'Policyholder cash flows'!H15</f>
+        <v>25.688555030410868</v>
+      </c>
+      <c r="R33" s="8">
+        <f t="shared" si="21"/>
+        <v>5040.7112195910286</v>
+      </c>
+      <c r="S33" s="8">
+        <f>(C33-D33-E33+R32)*Investment_rate</f>
+        <v>318.82716032590218</v>
+      </c>
+      <c r="T33" s="8">
+        <f t="shared" si="27"/>
+        <v>-295.05129759711781</v>
+      </c>
+      <c r="U33" s="105">
+        <f t="shared" si="28"/>
+        <v>28.952544744535828</v>
+      </c>
+      <c r="V33" s="105">
+        <f>$R$21*'Policyholder cash flows'!F14</f>
+        <v>28.952544744535377</v>
+      </c>
+      <c r="W33" s="106">
+        <f>Q32*(1+Investment_rate)-Q33</f>
+        <v>28.952544744535381</v>
+      </c>
+      <c r="Y33" s="8">
+        <f>'Policyholder cash flows'!D15</f>
+        <v>5066.5446127983696</v>
+      </c>
+      <c r="Z33" s="8">
+        <f>(C33-D33-E33+Y32)*Investment_rate</f>
+        <v>321.90594599626377</v>
+      </c>
+      <c r="AA33" s="8">
+        <f t="shared" si="29"/>
+        <v>-320.53099889580335</v>
+      </c>
+      <c r="AB33" s="8">
+        <f t="shared" si="30"/>
+        <v>57.511031713582952</v>
+      </c>
+      <c r="AE33" s="8">
+        <f t="shared" si="22"/>
+        <v>5066.5446127983696</v>
+      </c>
+      <c r="AF33" s="8">
+        <f>$AG$21*'Policyholder cash flows'!H15</f>
+        <v>18.239246042616017</v>
+      </c>
+      <c r="AG33" s="97">
+        <f>AF32*(1+Investment_rate)-AF33</f>
+        <v>20.556726002310455</v>
+      </c>
+      <c r="AH33" s="8">
+        <f t="shared" si="23"/>
+        <v>5048.3053667557533</v>
+      </c>
+      <c r="AI33" s="8">
+        <f>(C33-D33-E33+AH32)*Investment_rate</f>
+        <v>319.70994757862644</v>
+      </c>
+      <c r="AJ33" s="8">
+        <f t="shared" si="31"/>
+        <v>-302.17027131113082</v>
+      </c>
+      <c r="AK33" s="8">
+        <f t="shared" si="32"/>
+        <v>36.954305711273093</v>
+      </c>
+    </row>
+    <row r="34" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>10</v>
+      </c>
+      <c r="C34" s="8">
+        <f>C19</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <f>D19</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <f>E19</f>
+        <v>20.174437792414892</v>
+      </c>
+      <c r="F34" s="8">
+        <f>F19</f>
+        <v>5294.5391203742956</v>
+      </c>
+      <c r="G34" s="8">
+        <f>G19</f>
+        <v>-5314.7135581667108</v>
+      </c>
       <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
+      <c r="I34" s="5">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="8">
+        <f>NPV(Discount_rate,'Shareholder cash flows'!$D21:$D$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$E21:$E$21)*(1+Discount_rate)
++NPV(Discount_rate,'Shareholder cash flows'!$F21:$F$21)
+-NPV(Discount_rate,'Shareholder cash flows'!$C21:$C$21)*(1+Discount_rate)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <f>(C34-D34-E34+J33)*Investment_rate</f>
+        <v>299.69089360609217</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="25"/>
+        <v>-5015.0226645606181</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="O34"/>
-      <c r="P34"/>
-    </row>
-    <row r="35" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P34" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8">
+        <f>$R$21*'Policyholder cash flows'!H16</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="8">
+        <f>(C34-D34-E34+R33)*Investment_rate</f>
+        <v>301.2322069079168</v>
+      </c>
+      <c r="T34" s="8">
+        <f t="shared" si="27"/>
+        <v>-5040.7112195910286</v>
+      </c>
+      <c r="U34" s="105">
+        <f t="shared" si="28"/>
+        <v>27.229868332234219</v>
+      </c>
+      <c r="V34" s="105">
+        <f>$R$21*'Policyholder cash flows'!F15</f>
+        <v>27.229868332235519</v>
+      </c>
+      <c r="W34" s="106">
+        <f>Q33*(1+Investment_rate)-Q34</f>
+        <v>27.229868332235522</v>
+      </c>
+      <c r="Y34" s="8">
+        <f>'Policyholder cash flows'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="8">
+        <f>(C34-D34-E34+Y33)*Investment_rate</f>
+        <v>302.78221050035728</v>
+      </c>
+      <c r="AA34" s="8">
+        <f t="shared" si="29"/>
+        <v>-5066.5446127983696</v>
+      </c>
+      <c r="AB34" s="8">
+        <f t="shared" si="30"/>
+        <v>54.61326513201584</v>
+      </c>
+      <c r="AE34" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <f>$AG$21*'Policyholder cash flows'!H16</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="97">
+        <f>AF33*(1+Investment_rate)-AF34</f>
+        <v>19.333600805172978</v>
+      </c>
+      <c r="AH34" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="8">
+        <f>(C34-D34-E34+AH33)*Investment_rate</f>
+        <v>301.68785573780031</v>
+      </c>
+      <c r="AJ34" s="8">
+        <f t="shared" si="31"/>
+        <v>-5048.3053667557533</v>
+      </c>
+      <c r="AK34" s="8">
+        <f t="shared" si="32"/>
+        <v>35.279664326842976</v>
+      </c>
+    </row>
+    <row r="35" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -4930,7 +6339,7 @@
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -4947,7 +6356,7 @@
       <c r="O36"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -4964,7 +6373,7 @@
       <c r="O37"/>
       <c r="P37"/>
     </row>
-    <row r="38" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -4981,7 +6390,7 @@
       <c r="O38"/>
       <c r="P38"/>
     </row>
-    <row r="39" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -4998,7 +6407,7 @@
       <c r="O39"/>
       <c r="P39"/>
     </row>
-    <row r="40" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -5015,7 +6424,7 @@
       <c r="O40"/>
       <c r="P40"/>
     </row>
-    <row r="41" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -5032,7 +6441,7 @@
       <c r="O41"/>
       <c r="P41"/>
     </row>
-    <row r="42" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -5049,7 +6458,7 @@
       <c r="O42"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -5066,7 +6475,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -5083,7 +6492,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -5094,13 +6503,13 @@
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
-      <c r="L45" s="10"/>
+      <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -5112,10 +6521,12 @@
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" s="10"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-    </row>
-    <row r="47" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+    </row>
+    <row r="47" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -5130,7 +6541,7 @@
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:37" ht="15" x14ac:dyDescent="0.25">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -5145,8 +6556,28 @@
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
     </row>
+    <row r="49" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="P22:W22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AE22:AL22"/>
     <mergeCell ref="AE7:AL7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="I7:I8"/>
@@ -5165,7 +6596,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5611,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5914,7 +7345,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="23">
-        <f>(B18+'Shareholder cash flows'!F20)/(1+Discount_rate)+'Shareholder cash flows'!D20+'Shareholder cash flows'!E20</f>
+        <f>(B18+'Shareholder cash flows'!F21)/(1+Discount_rate)+'Shareholder cash flows'!D21+'Shareholder cash flows'!E21</f>
         <v>0</v>
       </c>
       <c r="C17" s="23">
@@ -7242,9 +8673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7267,13 +8696,13 @@
       <c r="C3" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="89" t="s">
         <v>83</v>
       </c>
       <c r="G3" s="85" t="s">
@@ -7284,9 +8713,9 @@
       <c r="A4" s="92"/>
       <c r="B4" s="92"/>
       <c r="C4" s="86"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7610,13 +9039,13 @@
       <c r="B24" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="89" t="s">
+      <c r="E24" s="83" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="85" t="s">
@@ -7625,29 +9054,29 @@
       <c r="I24" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="89" t="s">
+      <c r="J24" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="89" t="s">
+      <c r="K24" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="89" t="s">
+      <c r="L24" s="83" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="86"/>
       <c r="B25" s="88"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90" t="s">
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="86"/>
       <c r="I25" s="88"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90" t="s">
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8123,13 +9552,13 @@
       <c r="B40" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="89" t="s">
+      <c r="D40" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="89" t="s">
+      <c r="E40" s="83" t="s">
         <v>25</v>
       </c>
       <c r="H40" s="85" t="s">
@@ -8138,29 +9567,29 @@
       <c r="I40" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="89" t="s">
+      <c r="J40" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="89" t="s">
+      <c r="K40" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="L40" s="89" t="s">
+      <c r="L40" s="83" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="86"/>
       <c r="B41" s="88"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90" t="s">
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84" t="s">
         <v>25</v>
       </c>
       <c r="H41" s="86"/>
       <c r="I41" s="88"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90" t="s">
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8625,6 +10054,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
@@ -8641,17 +10081,6 @@
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="K24:K25"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
